--- a/graphs_excel_format/figure_1f_data.xlsx
+++ b/graphs_excel_format/figure_1f_data.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.07007367283428398</v>
+        <v>-0.2448147037583789</v>
       </c>
       <c r="C6" t="n">
         <v>-30.82701321657872</v>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.07007367283428398</v>
+        <v>-0.2448147037583789</v>
       </c>
       <c r="C7" t="n">
         <v>-17.74339494668659</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02227787272096815</v>
+        <v>0.07362648925341031</v>
       </c>
       <c r="C8" t="n">
         <v>-9.819338419697285</v>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02227787272096815</v>
+        <v>0.07362648925341031</v>
       </c>
       <c r="C9" t="n">
         <v>0.006222567295713688</v>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.125345803956098</v>
+        <v>0.2766928035767539</v>
       </c>
       <c r="C10" t="n">
         <v>-5.385646774586559</v>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.125345803956098</v>
+        <v>0.2766928035767539</v>
       </c>
       <c r="C11" t="n">
         <v>8.20152185189021</v>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2780603382790459</v>
+        <v>-0.00913394019094349</v>
       </c>
       <c r="C12" t="n">
         <v>-28.13330128713572</v>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.2780603382790459</v>
+        <v>-0.00913394019094349</v>
       </c>
       <c r="C13" t="n">
         <v>-14.25029797074924</v>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02536581600445398</v>
+        <v>-0.007509585147544739</v>
       </c>
       <c r="C14" t="n">
         <v>-9.869400312410106</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02536581600445398</v>
+        <v>-0.007509585147544739</v>
       </c>
       <c r="C15" t="n">
         <v>-2.839267798169339</v>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2594061727543126</v>
+        <v>-0.1296062758251604</v>
       </c>
       <c r="C16" t="n">
         <v>-26.35362931318191</v>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2594061727543126</v>
+        <v>-0.1296062758251604</v>
       </c>
       <c r="C17" t="n">
         <v>-19.28791585774295</v>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03065535830300253</v>
+        <v>-0.237887544718538</v>
       </c>
       <c r="C18" t="n">
         <v>-24.07912493942496</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03065535830300253</v>
+        <v>-0.237887544718538</v>
       </c>
       <c r="C19" t="n">
         <v>-17.25516059665181</v>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.125185231387863</v>
+        <v>0.08208295804965915</v>
       </c>
       <c r="C20" t="n">
         <v>2.028688243993613</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.125185231387863</v>
+        <v>0.08208295804965915</v>
       </c>
       <c r="C21" t="n">
         <v>8.124720153848283</v>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.07331491437355075</v>
+        <v>0.110360444255776</v>
       </c>
       <c r="C22" t="n">
         <v>-24.5807590139512</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.07331491437355075</v>
+        <v>0.110360444255776</v>
       </c>
       <c r="C23" t="n">
         <v>-15.11403484298553</v>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.03182494199216584</v>
+        <v>0.2041028271071827</v>
       </c>
       <c r="C24" t="n">
         <v>-2.539842269026117</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.03182494199216584</v>
+        <v>0.2041028271071827</v>
       </c>
       <c r="C25" t="n">
         <v>6.835456272203151</v>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.05656784104870349</v>
+        <v>0.06816672711960703</v>
       </c>
       <c r="C26" t="n">
         <v>-30.51901540252585</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.05656784104870349</v>
+        <v>0.06816672711960703</v>
       </c>
       <c r="C27" t="n">
         <v>-19.27122269271225</v>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.06153349779063932</v>
+        <v>0.1982746913229682</v>
       </c>
       <c r="C28" t="n">
         <v>-33.5997381454238</v>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.06153349779063932</v>
+        <v>0.1982746913229682</v>
       </c>
       <c r="C29" t="n">
         <v>-22.9535676314324</v>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.05290273795094608</v>
+        <v>0.01131364714368333</v>
       </c>
       <c r="C30" t="n">
         <v>-59.12692765179203</v>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.05290273795094608</v>
+        <v>0.01131364714368333</v>
       </c>
       <c r="C31" t="n">
         <v>-48.93244155043435</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2382954366134608</v>
+        <v>-0.06129181937186406</v>
       </c>
       <c r="C32" t="n">
         <v>-5.644429847259</v>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2382954366134608</v>
+        <v>-0.06129181937186406</v>
       </c>
       <c r="C33" t="n">
         <v>-0.2607893954260772</v>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1640936278758239</v>
+        <v>0.08825869867089597</v>
       </c>
       <c r="C34" t="n">
         <v>-14.14718568965414</v>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1640936278758239</v>
+        <v>0.08825869867089597</v>
       </c>
       <c r="C35" t="n">
         <v>-6.428748777372762</v>
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.07007367283428398</v>
+        <v>-0.2448147037583789</v>
       </c>
       <c r="C36" t="n">
         <v>-24.28520408163266</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02227787272096815</v>
+        <v>0.07362648925341031</v>
       </c>
       <c r="C37" t="n">
         <v>-4.906557926200786</v>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.125345803956098</v>
+        <v>0.2766928035767539</v>
       </c>
       <c r="C38" t="n">
         <v>1.407937538651825</v>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.2780603382790459</v>
+        <v>-0.00913394019094349</v>
       </c>
       <c r="C39" t="n">
         <v>-21.19179962894248</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.02536581600445398</v>
+        <v>-0.007509585147544739</v>
       </c>
       <c r="C40" t="n">
         <v>-6.354334055289723</v>
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2594061727543126</v>
+        <v>-0.1296062758251604</v>
       </c>
       <c r="C41" t="n">
         <v>-22.82077258546243</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.03065535830300253</v>
+        <v>-0.237887544718538</v>
       </c>
       <c r="C42" t="n">
         <v>-20.66714276803839</v>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.125185231387863</v>
+        <v>0.08208295804965915</v>
       </c>
       <c r="C43" t="n">
         <v>5.076704198920948</v>
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.07331491437355075</v>
+        <v>0.110360444255776</v>
       </c>
       <c r="C44" t="n">
         <v>-19.84739692846836</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.03182494199216584</v>
+        <v>0.2041028271071827</v>
       </c>
       <c r="C45" t="n">
         <v>2.147807001588517</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.05656784104870349</v>
+        <v>0.06816672711960703</v>
       </c>
       <c r="C46" t="n">
         <v>-24.89511904761905</v>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.06153349779063932</v>
+        <v>0.1982746913229682</v>
       </c>
       <c r="C47" t="n">
         <v>-28.2766528884281</v>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.05290273795094608</v>
+        <v>0.01131364714368333</v>
       </c>
       <c r="C48" t="n">
         <v>-54.02968460111319</v>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2382954366134608</v>
+        <v>-0.06129181937186406</v>
       </c>
       <c r="C49" t="n">
         <v>-2.952609621342538</v>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1640936278758239</v>
+        <v>0.08825869867089597</v>
       </c>
       <c r="C50" t="n">
         <v>-10.28796723351345</v>
@@ -1079,7 +1079,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>_child33</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1092,7 +1092,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>_child33</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1105,7 +1105,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>_child34</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1118,7 +1118,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>_child34</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1131,7 +1131,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>_child35</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1144,7 +1144,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>_child35</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1157,7 +1157,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>_child36</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1170,7 +1170,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>_child36</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1183,7 +1183,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>_child37</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1196,7 +1196,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>_child37</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1209,7 +1209,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>_child39</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1222,7 +1222,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>_child39</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1235,7 +1235,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>_child40</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1248,7 +1248,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>_child40</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1261,7 +1261,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>_child41</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1274,7 +1274,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>_child41</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1287,7 +1287,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>_child42</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1300,7 +1300,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>_child42</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1313,7 +1313,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>_child43</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1326,7 +1326,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>_child43</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2618492545906066</v>
+        <v>-0.06900980610002785</v>
       </c>
       <c r="C6" t="n">
         <v>37.51302798366972</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2618492545906066</v>
+        <v>-0.06900980610002785</v>
       </c>
       <c r="C7" t="n">
         <v>44.91114329065525</v>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0655242632519023</v>
+        <v>-0.04481747367766742</v>
       </c>
       <c r="C8" t="n">
         <v>3.696903833533568</v>
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0655242632519023</v>
+        <v>-0.04481747367766742</v>
       </c>
       <c r="C9" t="n">
         <v>11.37184773915777</v>
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2499084313979702</v>
+        <v>-0.04009077460711596</v>
       </c>
       <c r="C10" t="n">
         <v>10.47566468782351</v>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2499084313979702</v>
+        <v>-0.04009077460711596</v>
       </c>
       <c r="C11" t="n">
         <v>17.01342717269692</v>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1217418142401853</v>
+        <v>0.1024318584702077</v>
       </c>
       <c r="C12" t="n">
         <v>37.38036687819163</v>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1217418142401853</v>
+        <v>0.1024318584702077</v>
       </c>
       <c r="C13" t="n">
         <v>45.87930614621381</v>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1529088648381479</v>
+        <v>-0.01050031052605993</v>
       </c>
       <c r="C14" t="n">
         <v>24.20185937114498</v>
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1529088648381479</v>
+        <v>-0.01050031052605993</v>
       </c>
       <c r="C15" t="n">
         <v>34.43667518953244</v>
@@ -1639,7 +1639,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2886635394409702</v>
+        <v>-0.07601790801613442</v>
       </c>
       <c r="C16" t="n">
         <v>20.0374459289572</v>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2886635394409702</v>
+        <v>-0.07601790801613442</v>
       </c>
       <c r="C17" t="n">
         <v>29.11022038968656</v>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.06777008379981547</v>
+        <v>0.1357583157909442</v>
       </c>
       <c r="C18" t="n">
         <v>24.61859471690984</v>
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.06777008379981547</v>
+        <v>0.1357583157909442</v>
       </c>
       <c r="C19" t="n">
         <v>34.32232519651008</v>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.09260237899499146</v>
+        <v>0.1253127663699211</v>
       </c>
       <c r="C20" t="n">
         <v>18.81752941775735</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.09260237899499146</v>
+        <v>0.1253127663699211</v>
       </c>
       <c r="C21" t="n">
         <v>28.58091362612688</v>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2572370126040264</v>
+        <v>-0.2038131317684798</v>
       </c>
       <c r="C22" t="n">
         <v>-6.394130146112515</v>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2572370126040264</v>
+        <v>-0.2038131317684798</v>
       </c>
       <c r="C23" t="n">
         <v>2.551017147999515</v>
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.06980841997755705</v>
+        <v>-0.04086187752466064</v>
       </c>
       <c r="C24" t="n">
         <v>4.238035832030725</v>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.06980841997755705</v>
+        <v>-0.04086187752466064</v>
       </c>
       <c r="C25" t="n">
         <v>14.20601678202188</v>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2356302510628389</v>
+        <v>-0.1321023530266495</v>
       </c>
       <c r="C26" t="n">
         <v>14.98944969202625</v>
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2356302510628389</v>
+        <v>-0.1321023530266495</v>
       </c>
       <c r="C27" t="n">
         <v>22.97585643042274</v>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.2699110069417567</v>
+        <v>-0.2611757879754103</v>
       </c>
       <c r="C28" t="n">
         <v>26.29076883922356</v>
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.2699110069417567</v>
+        <v>-0.2611757879754103</v>
       </c>
       <c r="C29" t="n">
         <v>38.17316643185457</v>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.2618492545906066</v>
+        <v>-0.06900980610002785</v>
       </c>
       <c r="C30" t="n">
         <v>41.21208563716248</v>
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0655242632519023</v>
+        <v>-0.04481747367766742</v>
       </c>
       <c r="C31" t="n">
         <v>7.534375786345668</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2499084313979702</v>
+        <v>-0.04009077460711596</v>
       </c>
       <c r="C32" t="n">
         <v>13.74454593026021</v>
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1217418142401853</v>
+        <v>0.1024318584702077</v>
       </c>
       <c r="C33" t="n">
         <v>41.62983651220272</v>
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.1529088648381479</v>
+        <v>-0.01050031052605993</v>
       </c>
       <c r="C34" t="n">
         <v>29.31926728033871</v>
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2886635394409702</v>
+        <v>-0.07601790801613442</v>
       </c>
       <c r="C35" t="n">
         <v>24.57383315932188</v>
@@ -1899,7 +1899,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.06777008379981547</v>
+        <v>0.1357583157909442</v>
       </c>
       <c r="C36" t="n">
         <v>29.47045995670996</v>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.09260237899499146</v>
+        <v>0.1253127663699211</v>
       </c>
       <c r="C37" t="n">
         <v>23.69922152194211</v>
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2572370126040264</v>
+        <v>-0.2038131317684798</v>
       </c>
       <c r="C38" t="n">
         <v>-1.9215564990565</v>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.06980841997755705</v>
+        <v>-0.04086187752466064</v>
       </c>
       <c r="C39" t="n">
         <v>9.222026307026304</v>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2356302510628389</v>
+        <v>-0.1321023530266495</v>
       </c>
       <c r="C40" t="n">
         <v>18.98265306122449</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.2699110069417567</v>
+        <v>-0.2611757879754103</v>
       </c>
       <c r="C41" t="n">
         <v>32.23196763553906</v>
@@ -1973,7 +1973,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>_child27</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1986,7 +1986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>_child27</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1999,7 +1999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>_child28</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2012,7 +2012,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>_child28</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2025,7 +2025,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>_child29</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2038,7 +2038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>_child29</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2051,7 +2051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>_child30</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2064,7 +2064,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>_child30</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2077,7 +2077,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>_child31</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2090,7 +2090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>_child31</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2103,7 +2103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>_child33</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2116,7 +2116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>_child33</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2129,7 +2129,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>_child34</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2142,7 +2142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>_child34</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2155,7 +2155,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>_child35</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2168,7 +2168,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>_child35</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2181,7 +2181,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>_child36</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2194,7 +2194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>_child36</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2207,7 +2207,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>_child37</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2220,7 +2220,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>_child37</t>
+          <t>_nolegend_</t>
         </is>
       </c>
       <c r="B61" t="n">
